--- a/S2/Ecarts_S1-SPF-Vs-Ecarts_S2-SPF.xlsx
+++ b/S2/Ecarts_S1-SPF-Vs-Ecarts_S2-SPF.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Videos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RDGithub\publicinfo\S2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72737A3-FBDB-4822-87E6-AA0C781B2B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED29672-0AE3-42BE-8F0B-13C7465C88CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18470" windowHeight="11020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
   <si>
     <t>Organisation du travail</t>
   </si>
@@ -3162,6 +3162,24 @@
         <v>-4</v>
       </c>
     </row>
+    <row r="29" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8">
+        <f>SUM(B2:B28)/22</f>
+        <v>-9.2272727272727266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="13">
+        <f>SUM(B2:B28)</f>
+        <v>-203</v>
+      </c>
+    </row>
     <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="32" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
